--- a/xlsx/美国政党_intext.xlsx
+++ b/xlsx/美国政党_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国政治</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国政党</t>
+    <t>政策_政策_美国_美国政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>憲法黨 (美國)</t>
+    <t>宪法党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%88%87%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>和平與自由黨</t>
+    <t>和平与自由党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peace_and_Freedom_Party</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B9%B3%E7%AD%89%E9%BB%A8</t>
   </si>
   <si>
-    <t>社會主義平等黨</t>
+    <t>社会主义平等党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Socialist_Equality_Party_(United_States)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B7%A5%E4%BA%BA%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義工人黨 (美國)</t>
+    <t>社会主义工人党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Socialist_Workers_Party_(United_States)</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E7%8D%A8%E7%AB%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>波多黎各獨立黨</t>
+    <t>波多黎各独立党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Republican_Moderate_Party_of_Alaska</t>
@@ -1067,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>政黨體系</t>
+    <t>政党体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1109,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國的黨</t>
+    <t>美国的党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%98%E7%B5%90%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國團結黨</t>
+    <t>美国团结党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E9%AA%91%E5%A3%AB%E8%A7%A3%E6%94%BE%E5%85%9A</t>
@@ -1157,13 +1157,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B9%B3%E7%AD%89%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義平等黨 (美國)</t>
+    <t>社会主义平等党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -1181,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>美國經濟</t>
+    <t>美国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -1205,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國社會問題</t>
+    <t>美国社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
@@ -1223,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
@@ -1259,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1277,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
